--- a/LF/TAS/Nigeria/2024/apr_2024/ng_lf_tas_202404_2_part_ben_oy.xlsx
+++ b/LF/TAS/Nigeria/2024/apr_2024/ng_lf_tas_202404_2_part_ben_oy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\LF\TAS\Nigeria\2024\mar_2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\LF\TAS\Nigeria\2024\apr_2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3CA8095-E907-4B8B-BB37-A0FDB589ED7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83A800E0-3A1C-44EE-8E65-4EC6D67FB7A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -318,19 +318,19 @@
     <t>select_one team</t>
   </si>
   <si>
-    <t>(2024 Mar) Nigeria - 2. TAS1 LF Participants Form - Bayelsa V2</t>
-  </si>
-  <si>
-    <t>ng_lf_tas_202403_2_participant_bay_v2</t>
-  </si>
-  <si>
-    <t>ng_p_202403_v2</t>
-  </si>
-  <si>
     <t>Select your state</t>
   </si>
   <si>
-    <t>p_region</t>
+    <t>ng_lf_tas_202404_2_part_ben_oy</t>
+  </si>
+  <si>
+    <t>(2024 Apr) Nigeria - 2. TAS1 LF Participants Form - Benue &amp; Oyo</t>
+  </si>
+  <si>
+    <t>ng_p_2404</t>
+  </si>
+  <si>
+    <t>p_eu</t>
   </si>
 </sst>
 </file>
@@ -953,7 +953,7 @@
         <v>102</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D3" s="23"/>
       <c r="G3" s="23"/>
@@ -1050,7 +1050,7 @@
         <v>74</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C8" s="16" t="s">
         <v>78</v>
@@ -1546,7 +1546,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1570,7 +1570,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>99</v>

--- a/LF/TAS/Nigeria/2024/apr_2024/ng_lf_tas_202404_2_part_ben_oy.xlsx
+++ b/LF/TAS/Nigeria/2024/apr_2024/ng_lf_tas_202404_2_part_ben_oy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\LF\TAS\Nigeria\2024\apr_2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83A800E0-3A1C-44EE-8E65-4EC6D67FB7A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4A00A8A-2C55-44F2-B7F0-71EC6634F811}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="113">
   <si>
     <t>type</t>
   </si>
@@ -321,16 +321,46 @@
     <t>Select your state</t>
   </si>
   <si>
-    <t>ng_lf_tas_202404_2_part_ben_oy</t>
-  </si>
-  <si>
-    <t>(2024 Apr) Nigeria - 2. TAS1 LF Participants Form - Benue &amp; Oyo</t>
-  </si>
-  <si>
-    <t>ng_p_2404</t>
-  </si>
-  <si>
     <t>p_eu</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>ng_p_2404_v2</t>
+  </si>
+  <si>
+    <t>(2024 Apr) Nigeria - 2. TAS1 LF Participants Form - Benue &amp; Oyo V2</t>
+  </si>
+  <si>
+    <t>ng_lf_tas_202404_2_part_ben_oy_v2</t>
   </si>
 </sst>
 </file>
@@ -857,11 +887,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomRight" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -950,7 +980,7 @@
         <v>44</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C3" s="23" t="s">
         <v>98</v>
@@ -1050,7 +1080,7 @@
         <v>74</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="C8" s="16" t="s">
         <v>78</v>
@@ -1311,11 +1341,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD13"/>
+      <selection pane="bottomLeft" activeCell="C22" sqref="B2:C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1460,79 +1490,189 @@
         <v>85</v>
       </c>
       <c r="B12" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="31" customFormat="1">
+      <c r="A13" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="B13" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="C13" s="32" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" s="31" customFormat="1">
+      <c r="A14" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="B14" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="C14" s="32" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" s="31" customFormat="1">
+      <c r="A15" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="B15" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="C15" s="32" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" s="31" customFormat="1">
+      <c r="A16" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="B16" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="C16" s="32" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" s="31" customFormat="1">
+      <c r="A17" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="B17" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="C17" s="32" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" s="31" customFormat="1">
+      <c r="A18" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="B18" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="C18" s="32" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" s="31" customFormat="1">
+      <c r="A19" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="B19" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="C19" s="32" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" s="31" customFormat="1">
+      <c r="A20" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="B20" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="C20" s="32" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" s="31" customFormat="1">
+      <c r="A21" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="B21" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="C21" s="32" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" s="31" customFormat="1">
+      <c r="A22" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="B22" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="C12" s="32" t="s">
+      <c r="C22" s="32" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="31" customFormat="1">
-      <c r="B13" s="32"/>
-      <c r="C13" s="32"/>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="3" t="s">
+    <row r="23" spans="1:3" s="31" customFormat="1">
+      <c r="B23" s="32"/>
+      <c r="C23" s="32"/>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B24" t="s">
         <v>53</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C24" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="3" t="s">
+    <row r="25" spans="1:3">
+      <c r="A25" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B25" t="s">
         <v>54</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C25" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="3" t="s">
+    <row r="26" spans="1:3">
+      <c r="A26" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B26" t="s">
         <v>56</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C26" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="3" t="s">
+    <row r="27" spans="1:3">
+      <c r="A27" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B27" t="s">
         <v>57</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C27" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
         <v>58</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B28" t="s">
         <v>59</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C28" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
         <v>58</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B29" t="s">
         <v>60</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C29" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1545,8 +1685,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1570,10 +1710,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="7" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>64</v>
